--- a/input1/CSV出力ツール用INPUT1.xlsx
+++ b/input1/CSV出力ツール用INPUT1.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/054e98195e86edd1/Documents/Oracle_TESTDB/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="197" documentId="8_{4A014B5E-C0BC-4F12-A068-67FDBBB8821D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{045A67AF-25BD-43AE-B72A-9E951754A828}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EBB01FDB-4220-4FA4-B3EC-09F6E37D52B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="19390" windowHeight="10990" activeTab="1" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
+    <workbookView xWindow="2880" yWindow="2880" windowWidth="19470" windowHeight="15300" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV出力用" sheetId="1" r:id="rId1"/>
@@ -18,25 +13,18 @@
     <sheet name="工事情報(詳細)" sheetId="4" r:id="rId3"/>
     <sheet name="工事情報(詳細2)" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:I14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="695">
   <si>
     <t>A_INTG_SO_NUM</t>
   </si>
@@ -2138,6 +2126,14 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RAT_EXAM_SITS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E_ACC_WIT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2509,9 +2505,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4552,11 +4546,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA9F89C-2EA3-4711-9F69-DAEBF3A703AC}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4566,7 +4558,7 @@
     <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4579,8 +4571,14 @@
       <c r="D1" s="1" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>304</v>
       </c>
@@ -4594,7 +4592,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>305</v>
       </c>
@@ -4608,7 +4606,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>306</v>
       </c>
@@ -4622,7 +4620,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>307</v>
       </c>
@@ -4636,7 +4634,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>308</v>
       </c>
@@ -4650,7 +4648,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>309</v>
       </c>
@@ -4664,7 +4662,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>310</v>
       </c>
@@ -4678,7 +4676,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>311</v>
       </c>
@@ -4692,7 +4690,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>312</v>
       </c>
@@ -4706,7 +4704,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>313</v>
       </c>
@@ -4720,7 +4718,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>314</v>
       </c>
@@ -4734,7 +4732,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>303</v>
       </c>
@@ -4748,7 +4746,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>315</v>
       </c>
@@ -4762,7 +4760,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>316</v>
       </c>
@@ -4776,7 +4774,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>317</v>
       </c>
@@ -5992,9 +5990,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7124,9 +7120,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>

--- a/input1/CSV出力ツール用INPUT1.xlsx
+++ b/input1/CSV出力ツール用INPUT1.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{EBB01FDB-4220-4FA4-B3EC-09F6E37D52B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1AF0861B-DCC6-4F62-8921-A300B8843FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="2880" windowWidth="19470" windowHeight="15300" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
+    <workbookView xWindow="4530" yWindow="4580" windowWidth="19390" windowHeight="10990" firstSheet="1" activeTab="1" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
   </bookViews>
   <sheets>
-    <sheet name="CSV出力用" sheetId="1" r:id="rId1"/>
-    <sheet name="工事情報(制御)" sheetId="3" r:id="rId2"/>
-    <sheet name="工事情報(詳細)" sheetId="4" r:id="rId3"/>
-    <sheet name="工事情報(詳細2)" sheetId="5" r:id="rId4"/>
+    <sheet name="CSV_OUTPUT_DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="JOB_INFO" sheetId="3" r:id="rId2"/>
+    <sheet name="JOB_INFO_DETAIL" sheetId="4" r:id="rId3"/>
+    <sheet name="JOB_INFO_DETAIL2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I14"/>
+  <oleSize ref="A1:I16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2101,18 +2101,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>102P</t>
-  </si>
-  <si>
-    <t>102Q</t>
-  </si>
-  <si>
-    <t>102R</t>
-  </si>
-  <si>
-    <t>102S</t>
-  </si>
-  <si>
     <t>JYUUKYO_KEITAI</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2135,6 +2123,18 @@
   <si>
     <t>E_ACC_WIT</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１０２Ｑ</t>
+  </si>
+  <si>
+    <t>１０２Ｓ</t>
+  </si>
+  <si>
+    <t>１０２Ｒ</t>
+  </si>
+  <si>
+    <t>１０２Ｐ</t>
   </si>
 </sst>
 </file>
@@ -2505,7 +2505,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -2553,7 +2555,7 @@
         <v>681</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2573,7 +2575,7 @@
         <v>681</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2593,7 +2595,7 @@
         <v>681</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2613,7 +2615,7 @@
         <v>681</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2633,7 +2635,7 @@
         <v>681</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2653,7 +2655,7 @@
         <v>681</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2673,7 +2675,7 @@
         <v>681</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2693,7 +2695,7 @@
         <v>681</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2713,7 +2715,7 @@
         <v>681</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2733,7 +2735,7 @@
         <v>681</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2753,7 +2755,7 @@
         <v>681</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2773,7 +2775,7 @@
         <v>681</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2793,7 +2795,7 @@
         <v>681</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2813,7 +2815,7 @@
         <v>681</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2833,7 +2835,7 @@
         <v>681</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2853,7 +2855,7 @@
         <v>681</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2873,7 +2875,7 @@
         <v>681</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2893,7 +2895,7 @@
         <v>681</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2913,7 +2915,7 @@
         <v>681</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2933,7 +2935,7 @@
         <v>681</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2953,7 +2955,7 @@
         <v>681</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2973,7 +2975,7 @@
         <v>681</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2993,7 +2995,7 @@
         <v>681</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3013,7 +3015,7 @@
         <v>681</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3033,7 +3035,7 @@
         <v>681</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3053,7 +3055,7 @@
         <v>681</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3073,7 +3075,7 @@
         <v>681</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3093,7 +3095,7 @@
         <v>681</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3113,7 +3115,7 @@
         <v>681</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3133,7 +3135,7 @@
         <v>681</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3153,7 +3155,7 @@
         <v>681</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3173,7 +3175,7 @@
         <v>681</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3193,7 +3195,7 @@
         <v>681</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3213,7 +3215,7 @@
         <v>681</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3233,7 +3235,7 @@
         <v>681</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3253,7 +3255,7 @@
         <v>681</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3273,7 +3275,7 @@
         <v>681</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3293,7 +3295,7 @@
         <v>681</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3313,7 +3315,7 @@
         <v>681</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3333,7 +3335,7 @@
         <v>681</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3353,7 +3355,7 @@
         <v>681</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3373,7 +3375,7 @@
         <v>681</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3393,7 +3395,7 @@
         <v>681</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3413,7 +3415,7 @@
         <v>681</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3433,7 +3435,7 @@
         <v>681</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3453,7 +3455,7 @@
         <v>681</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3473,7 +3475,7 @@
         <v>681</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3493,7 +3495,7 @@
         <v>681</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3513,7 +3515,7 @@
         <v>681</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3533,7 +3535,7 @@
         <v>681</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3553,7 +3555,7 @@
         <v>681</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3573,7 +3575,7 @@
         <v>681</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3593,7 +3595,7 @@
         <v>681</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3613,7 +3615,7 @@
         <v>681</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3633,7 +3635,7 @@
         <v>681</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3653,7 +3655,7 @@
         <v>681</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3673,7 +3675,7 @@
         <v>681</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3693,7 +3695,7 @@
         <v>681</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3713,7 +3715,7 @@
         <v>681</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3733,7 +3735,7 @@
         <v>681</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3753,7 +3755,7 @@
         <v>681</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3773,7 +3775,7 @@
         <v>681</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3793,7 +3795,7 @@
         <v>681</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3813,7 +3815,7 @@
         <v>681</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3833,7 +3835,7 @@
         <v>681</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3853,7 +3855,7 @@
         <v>681</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3873,7 +3875,7 @@
         <v>681</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3893,7 +3895,7 @@
         <v>681</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3913,7 +3915,7 @@
         <v>681</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3933,7 +3935,7 @@
         <v>681</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3953,7 +3955,7 @@
         <v>681</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3973,7 +3975,7 @@
         <v>681</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3993,7 +3995,7 @@
         <v>681</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4013,7 +4015,7 @@
         <v>681</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4033,7 +4035,7 @@
         <v>681</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4053,7 +4055,7 @@
         <v>681</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4073,7 +4075,7 @@
         <v>681</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4093,7 +4095,7 @@
         <v>681</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4113,7 +4115,7 @@
         <v>681</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4133,7 +4135,7 @@
         <v>681</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4153,7 +4155,7 @@
         <v>681</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4173,7 +4175,7 @@
         <v>681</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4193,7 +4195,7 @@
         <v>681</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4213,7 +4215,7 @@
         <v>681</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4233,7 +4235,7 @@
         <v>681</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4253,7 +4255,7 @@
         <v>681</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4273,7 +4275,7 @@
         <v>681</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4293,7 +4295,7 @@
         <v>681</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4313,7 +4315,7 @@
         <v>681</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4333,7 +4335,7 @@
         <v>681</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4353,7 +4355,7 @@
         <v>681</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4373,7 +4375,7 @@
         <v>681</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4393,7 +4395,7 @@
         <v>681</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4413,7 +4415,7 @@
         <v>681</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4433,7 +4435,7 @@
         <v>681</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4453,7 +4455,7 @@
         <v>681</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4473,7 +4475,7 @@
         <v>681</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4493,7 +4495,7 @@
         <v>681</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4513,7 +4515,7 @@
         <v>681</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4533,7 +4535,7 @@
         <v>681</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -4548,7 +4550,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4569,13 +4573,13 @@
         <v>407</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>693</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4589,7 +4593,7 @@
         <v>669</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4603,7 +4607,7 @@
         <v>670</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4617,7 +4621,7 @@
         <v>669</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4631,7 +4635,7 @@
         <v>669</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4645,7 +4649,7 @@
         <v>671</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4659,7 +4663,7 @@
         <v>672</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4673,7 +4677,7 @@
         <v>669</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4687,7 +4691,7 @@
         <v>669</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4701,7 +4705,7 @@
         <v>672</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4715,7 +4719,7 @@
         <v>672</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4729,7 +4733,7 @@
         <v>671</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4743,7 +4747,7 @@
         <v>669</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4757,7 +4761,7 @@
         <v>672</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4771,7 +4775,7 @@
         <v>669</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4785,7 +4789,7 @@
         <v>670</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4799,7 +4803,7 @@
         <v>671</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4813,7 +4817,7 @@
         <v>669</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4827,7 +4831,7 @@
         <v>669</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4841,7 +4845,7 @@
         <v>669</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4855,7 +4859,7 @@
         <v>672</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4869,7 +4873,7 @@
         <v>672</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4883,7 +4887,7 @@
         <v>669</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4897,7 +4901,7 @@
         <v>672</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4911,7 +4915,7 @@
         <v>671</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4925,7 +4929,7 @@
         <v>671</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4939,7 +4943,7 @@
         <v>669</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4953,7 +4957,7 @@
         <v>670</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4967,7 +4971,7 @@
         <v>669</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4981,7 +4985,7 @@
         <v>672</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -4995,7 +4999,7 @@
         <v>670</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5009,7 +5013,7 @@
         <v>669</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5023,7 +5027,7 @@
         <v>671</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5037,7 +5041,7 @@
         <v>672</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5051,7 +5055,7 @@
         <v>672</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5065,7 +5069,7 @@
         <v>669</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5079,7 +5083,7 @@
         <v>672</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5093,7 +5097,7 @@
         <v>669</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5107,7 +5111,7 @@
         <v>669</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5121,7 +5125,7 @@
         <v>669</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5135,7 +5139,7 @@
         <v>671</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5149,7 +5153,7 @@
         <v>669</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5163,7 +5167,7 @@
         <v>669</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5177,7 +5181,7 @@
         <v>670</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5191,7 +5195,7 @@
         <v>669</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5205,7 +5209,7 @@
         <v>671</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5219,7 +5223,7 @@
         <v>669</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5233,7 +5237,7 @@
         <v>669</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5247,7 +5251,7 @@
         <v>669</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5261,7 +5265,7 @@
         <v>671</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5275,7 +5279,7 @@
         <v>671</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5289,7 +5293,7 @@
         <v>671</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5303,7 +5307,7 @@
         <v>672</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5317,7 +5321,7 @@
         <v>669</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5331,7 +5335,7 @@
         <v>671</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5345,7 +5349,7 @@
         <v>669</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5359,7 +5363,7 @@
         <v>672</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5373,7 +5377,7 @@
         <v>669</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5387,7 +5391,7 @@
         <v>672</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5401,7 +5405,7 @@
         <v>669</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5415,7 +5419,7 @@
         <v>669</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5429,7 +5433,7 @@
         <v>672</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5443,7 +5447,7 @@
         <v>671</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5457,7 +5461,7 @@
         <v>671</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5471,7 +5475,7 @@
         <v>669</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5485,7 +5489,7 @@
         <v>669</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5499,7 +5503,7 @@
         <v>669</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5513,7 +5517,7 @@
         <v>671</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5527,7 +5531,7 @@
         <v>669</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5541,7 +5545,7 @@
         <v>669</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5555,7 +5559,7 @@
         <v>671</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5569,7 +5573,7 @@
         <v>670</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5583,7 +5587,7 @@
         <v>669</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5597,7 +5601,7 @@
         <v>670</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5611,7 +5615,7 @@
         <v>670</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5625,7 +5629,7 @@
         <v>671</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5639,7 +5643,7 @@
         <v>671</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5653,7 +5657,7 @@
         <v>669</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5667,7 +5671,7 @@
         <v>671</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5681,7 +5685,7 @@
         <v>669</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5695,7 +5699,7 @@
         <v>671</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5709,7 +5713,7 @@
         <v>671</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5723,7 +5727,7 @@
         <v>669</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5737,7 +5741,7 @@
         <v>671</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5751,7 +5755,7 @@
         <v>671</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5765,7 +5769,7 @@
         <v>669</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5779,7 +5783,7 @@
         <v>672</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5793,7 +5797,7 @@
         <v>669</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5807,7 +5811,7 @@
         <v>671</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5821,7 +5825,7 @@
         <v>672</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5835,7 +5839,7 @@
         <v>670</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5849,7 +5853,7 @@
         <v>669</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5863,7 +5867,7 @@
         <v>671</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5877,7 +5881,7 @@
         <v>669</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5891,7 +5895,7 @@
         <v>671</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5905,7 +5909,7 @@
         <v>671</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5919,7 +5923,7 @@
         <v>669</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5933,7 +5937,7 @@
         <v>672</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5947,7 +5951,7 @@
         <v>669</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5961,7 +5965,7 @@
         <v>669</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -5975,7 +5979,7 @@
         <v>669</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
     </row>
   </sheetData>
@@ -5990,7 +5994,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7120,7 +7126,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>

--- a/input1/CSV出力ツール用INPUT1.xlsx
+++ b/input1/CSV出力ツール用INPUT1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1AF0861B-DCC6-4F62-8921-A300B8843FBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BF0E8EE6-E4BD-4AEE-A845-E60E89301E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4530" yWindow="4580" windowWidth="19390" windowHeight="10990" firstSheet="1" activeTab="1" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="19430" windowHeight="15070" firstSheet="1" activeTab="1" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV_OUTPUT_DATA" sheetId="1" r:id="rId1"/>
@@ -13,18 +13,26 @@
     <sheet name="JOB_INFO_DETAIL" sheetId="4" r:id="rId3"/>
     <sheet name="JOB_INFO_DETAIL2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <oleSize ref="A1:I16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="699">
   <si>
     <t>A_INTG_SO_NUM</t>
   </si>
@@ -2117,10 +2125,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>RAT_EXAM_SITS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>E_ACC_WIT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2135,6 +2139,25 @@
   </si>
   <si>
     <t>１０２Ｐ</t>
+  </si>
+  <si>
+    <t>RMT_EXAM_SITS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G_ELC_REQ_FLAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>G_RD_COP_REQ_FLG</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2555,7 +2578,7 @@
         <v>681</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2575,7 +2598,7 @@
         <v>681</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2595,7 +2618,7 @@
         <v>681</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2615,7 +2638,7 @@
         <v>681</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2635,7 +2658,7 @@
         <v>681</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2655,7 +2678,7 @@
         <v>681</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2675,7 +2698,7 @@
         <v>681</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2695,7 +2718,7 @@
         <v>681</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2715,7 +2738,7 @@
         <v>681</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2735,7 +2758,7 @@
         <v>681</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2755,7 +2778,7 @@
         <v>681</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2775,7 +2798,7 @@
         <v>681</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2795,7 +2818,7 @@
         <v>681</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2815,7 +2838,7 @@
         <v>681</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2835,7 +2858,7 @@
         <v>681</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2855,7 +2878,7 @@
         <v>681</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2875,7 +2898,7 @@
         <v>681</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2895,7 +2918,7 @@
         <v>681</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2915,7 +2938,7 @@
         <v>681</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2935,7 +2958,7 @@
         <v>681</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2955,7 +2978,7 @@
         <v>681</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2975,7 +2998,7 @@
         <v>681</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -2995,7 +3018,7 @@
         <v>681</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3015,7 +3038,7 @@
         <v>681</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3035,7 +3058,7 @@
         <v>681</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3055,7 +3078,7 @@
         <v>681</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3075,7 +3098,7 @@
         <v>681</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3095,7 +3118,7 @@
         <v>681</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3115,7 +3138,7 @@
         <v>681</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3135,7 +3158,7 @@
         <v>681</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3155,7 +3178,7 @@
         <v>681</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3175,7 +3198,7 @@
         <v>681</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3195,7 +3218,7 @@
         <v>681</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3215,7 +3238,7 @@
         <v>681</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3235,7 +3258,7 @@
         <v>681</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3255,7 +3278,7 @@
         <v>681</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3275,7 +3298,7 @@
         <v>681</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3295,7 +3318,7 @@
         <v>681</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3315,7 +3338,7 @@
         <v>681</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3335,7 +3358,7 @@
         <v>681</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3355,7 +3378,7 @@
         <v>681</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3375,7 +3398,7 @@
         <v>681</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3395,7 +3418,7 @@
         <v>681</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3415,7 +3438,7 @@
         <v>681</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3435,7 +3458,7 @@
         <v>681</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3455,7 +3478,7 @@
         <v>681</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3475,7 +3498,7 @@
         <v>681</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3495,7 +3518,7 @@
         <v>681</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3515,7 +3538,7 @@
         <v>681</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3535,7 +3558,7 @@
         <v>681</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3555,7 +3578,7 @@
         <v>681</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3575,7 +3598,7 @@
         <v>681</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3595,7 +3618,7 @@
         <v>681</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3615,7 +3638,7 @@
         <v>681</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3635,7 +3658,7 @@
         <v>681</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3655,7 +3678,7 @@
         <v>681</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3675,7 +3698,7 @@
         <v>681</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3695,7 +3718,7 @@
         <v>681</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3715,7 +3738,7 @@
         <v>681</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3735,7 +3758,7 @@
         <v>681</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3755,7 +3778,7 @@
         <v>681</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3775,7 +3798,7 @@
         <v>681</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3795,7 +3818,7 @@
         <v>681</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3815,7 +3838,7 @@
         <v>681</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3835,7 +3858,7 @@
         <v>681</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3855,7 +3878,7 @@
         <v>681</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3875,7 +3898,7 @@
         <v>681</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3895,7 +3918,7 @@
         <v>681</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3915,7 +3938,7 @@
         <v>681</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3935,7 +3958,7 @@
         <v>681</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3955,7 +3978,7 @@
         <v>681</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3975,7 +3998,7 @@
         <v>681</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -3995,7 +4018,7 @@
         <v>681</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4015,7 +4038,7 @@
         <v>681</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4035,7 +4058,7 @@
         <v>681</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4055,7 +4078,7 @@
         <v>681</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4075,7 +4098,7 @@
         <v>681</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4095,7 +4118,7 @@
         <v>681</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4115,7 +4138,7 @@
         <v>681</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4135,7 +4158,7 @@
         <v>681</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4155,7 +4178,7 @@
         <v>681</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4175,7 +4198,7 @@
         <v>681</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4195,7 +4218,7 @@
         <v>681</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4215,7 +4238,7 @@
         <v>681</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4235,7 +4258,7 @@
         <v>681</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4255,7 +4278,7 @@
         <v>681</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4275,7 +4298,7 @@
         <v>681</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4295,7 +4318,7 @@
         <v>681</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4315,7 +4338,7 @@
         <v>681</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4335,7 +4358,7 @@
         <v>681</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4355,7 +4378,7 @@
         <v>681</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4375,7 +4398,7 @@
         <v>681</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4395,7 +4418,7 @@
         <v>681</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4415,7 +4438,7 @@
         <v>681</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4435,7 +4458,7 @@
         <v>681</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4455,7 +4478,7 @@
         <v>681</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4475,7 +4498,7 @@
         <v>681</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4495,7 +4518,7 @@
         <v>681</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4515,7 +4538,7 @@
         <v>681</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -4535,7 +4558,7 @@
         <v>681</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -4548,11 +4571,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA9F89C-2EA3-4711-9F69-DAEBF3A703AC}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4562,7 +4583,7 @@
     <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4576,13 +4597,19 @@
         <v>685</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>304</v>
       </c>
@@ -4595,8 +4622,20 @@
       <c r="D2" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>305</v>
       </c>
@@ -4609,8 +4648,20 @@
       <c r="D3" s="1" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>306</v>
       </c>
@@ -4623,8 +4674,20 @@
       <c r="D4" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>307</v>
       </c>
@@ -4637,8 +4700,20 @@
       <c r="D5" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>308</v>
       </c>
@@ -4651,8 +4726,20 @@
       <c r="D6" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>309</v>
       </c>
@@ -4665,8 +4752,20 @@
       <c r="D7" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>310</v>
       </c>
@@ -4679,8 +4778,20 @@
       <c r="D8" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>311</v>
       </c>
@@ -4693,8 +4804,20 @@
       <c r="D9" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>312</v>
       </c>
@@ -4707,8 +4830,20 @@
       <c r="D10" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>313</v>
       </c>
@@ -4721,8 +4856,20 @@
       <c r="D11" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>314</v>
       </c>
@@ -4735,8 +4882,20 @@
       <c r="D12" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>303</v>
       </c>
@@ -4749,8 +4908,20 @@
       <c r="D13" s="1" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>315</v>
       </c>
@@ -4763,8 +4934,20 @@
       <c r="D14" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>316</v>
       </c>
@@ -4777,8 +4960,20 @@
       <c r="D15" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>317</v>
       </c>
@@ -4791,8 +4986,20 @@
       <c r="D16" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>318</v>
       </c>
@@ -4805,8 +5012,20 @@
       <c r="D17" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
         <v>319</v>
       </c>
@@ -4819,8 +5038,20 @@
       <c r="D18" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
         <v>320</v>
       </c>
@@ -4833,8 +5064,20 @@
       <c r="D19" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>321</v>
       </c>
@@ -4847,8 +5090,20 @@
       <c r="D20" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>322</v>
       </c>
@@ -4861,8 +5116,20 @@
       <c r="D21" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
         <v>323</v>
       </c>
@@ -4875,8 +5142,20 @@
       <c r="D22" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
         <v>324</v>
       </c>
@@ -4889,8 +5168,20 @@
       <c r="D23" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
         <v>325</v>
       </c>
@@ -4903,8 +5194,20 @@
       <c r="D24" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
         <v>326</v>
       </c>
@@ -4917,8 +5220,20 @@
       <c r="D25" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>327</v>
       </c>
@@ -4931,8 +5246,20 @@
       <c r="D26" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
         <v>328</v>
       </c>
@@ -4945,8 +5272,20 @@
       <c r="D27" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
         <v>329</v>
       </c>
@@ -4959,8 +5298,20 @@
       <c r="D28" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
         <v>330</v>
       </c>
@@ -4973,8 +5324,20 @@
       <c r="D29" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
         <v>331</v>
       </c>
@@ -4987,8 +5350,20 @@
       <c r="D30" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
         <v>332</v>
       </c>
@@ -5001,8 +5376,20 @@
       <c r="D31" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
         <v>333</v>
       </c>
@@ -5015,8 +5402,20 @@
       <c r="D32" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
         <v>334</v>
       </c>
@@ -5029,8 +5428,20 @@
       <c r="D33" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
         <v>335</v>
       </c>
@@ -5043,8 +5454,20 @@
       <c r="D34" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
         <v>336</v>
       </c>
@@ -5057,8 +5480,20 @@
       <c r="D35" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
         <v>337</v>
       </c>
@@ -5071,8 +5506,20 @@
       <c r="D36" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>338</v>
       </c>
@@ -5085,8 +5532,20 @@
       <c r="D37" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
         <v>339</v>
       </c>
@@ -5099,8 +5558,20 @@
       <c r="D38" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
         <v>340</v>
       </c>
@@ -5113,8 +5584,20 @@
       <c r="D39" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
         <v>341</v>
       </c>
@@ -5127,8 +5610,20 @@
       <c r="D40" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E40" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
         <v>342</v>
       </c>
@@ -5141,8 +5636,20 @@
       <c r="D41" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E41" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
         <v>343</v>
       </c>
@@ -5155,8 +5662,20 @@
       <c r="D42" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E42" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
         <v>344</v>
       </c>
@@ -5169,8 +5688,20 @@
       <c r="D43" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E43" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
         <v>345</v>
       </c>
@@ -5183,8 +5714,20 @@
       <c r="D44" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E44" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
         <v>346</v>
       </c>
@@ -5197,8 +5740,20 @@
       <c r="D45" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E45" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
         <v>347</v>
       </c>
@@ -5211,8 +5766,20 @@
       <c r="D46" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E46" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
         <v>348</v>
       </c>
@@ -5225,8 +5792,20 @@
       <c r="D47" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E47" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
         <v>349</v>
       </c>
@@ -5239,8 +5818,20 @@
       <c r="D48" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E48" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
         <v>350</v>
       </c>
@@ -5253,8 +5844,20 @@
       <c r="D49" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E49" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
         <v>351</v>
       </c>
@@ -5267,8 +5870,20 @@
       <c r="D50" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E50" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
         <v>352</v>
       </c>
@@ -5281,8 +5896,20 @@
       <c r="D51" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E51" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>353</v>
       </c>
@@ -5295,8 +5922,20 @@
       <c r="D52" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E52" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
         <v>354</v>
       </c>
@@ -5309,8 +5948,20 @@
       <c r="D53" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E53" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
         <v>355</v>
       </c>
@@ -5323,8 +5974,20 @@
       <c r="D54" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E54" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
         <v>356</v>
       </c>
@@ -5337,8 +6000,20 @@
       <c r="D55" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E55" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
         <v>357</v>
       </c>
@@ -5351,8 +6026,20 @@
       <c r="D56" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E56" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
         <v>358</v>
       </c>
@@ -5365,8 +6052,20 @@
       <c r="D57" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E57" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
         <v>359</v>
       </c>
@@ -5379,8 +6078,20 @@
       <c r="D58" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E58" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
         <v>360</v>
       </c>
@@ -5393,8 +6104,20 @@
       <c r="D59" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E59" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
         <v>361</v>
       </c>
@@ -5407,8 +6130,20 @@
       <c r="D60" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E60" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
         <v>362</v>
       </c>
@@ -5421,8 +6156,20 @@
       <c r="D61" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E61" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
         <v>363</v>
       </c>
@@ -5435,8 +6182,20 @@
       <c r="D62" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E62" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
         <v>364</v>
       </c>
@@ -5449,8 +6208,20 @@
       <c r="D63" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E63" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
         <v>365</v>
       </c>
@@ -5463,8 +6234,20 @@
       <c r="D64" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E64" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
         <v>366</v>
       </c>
@@ -5477,8 +6260,20 @@
       <c r="D65" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E65" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
         <v>367</v>
       </c>
@@ -5491,8 +6286,20 @@
       <c r="D66" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E66" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
         <v>368</v>
       </c>
@@ -5505,8 +6312,20 @@
       <c r="D67" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E67" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>369</v>
       </c>
@@ -5519,8 +6338,20 @@
       <c r="D68" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E68" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
         <v>370</v>
       </c>
@@ -5533,8 +6364,20 @@
       <c r="D69" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E69" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
         <v>371</v>
       </c>
@@ -5547,8 +6390,20 @@
       <c r="D70" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E70" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
         <v>372</v>
       </c>
@@ -5561,8 +6416,20 @@
       <c r="D71" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E71" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
         <v>373</v>
       </c>
@@ -5575,8 +6442,20 @@
       <c r="D72" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E72" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
         <v>374</v>
       </c>
@@ -5589,8 +6468,20 @@
       <c r="D73" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E73" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
         <v>375</v>
       </c>
@@ -5603,8 +6494,20 @@
       <c r="D74" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E74" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
         <v>376</v>
       </c>
@@ -5617,8 +6520,20 @@
       <c r="D75" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E75" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
         <v>377</v>
       </c>
@@ -5631,8 +6546,20 @@
       <c r="D76" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E76" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
         <v>378</v>
       </c>
@@ -5645,8 +6572,20 @@
       <c r="D77" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E77" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
         <v>379</v>
       </c>
@@ -5659,8 +6598,20 @@
       <c r="D78" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E78" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>380</v>
       </c>
@@ -5673,8 +6624,20 @@
       <c r="D79" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E79" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
         <v>381</v>
       </c>
@@ -5687,8 +6650,20 @@
       <c r="D80" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E80" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
         <v>382</v>
       </c>
@@ -5701,8 +6676,20 @@
       <c r="D81" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E81" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
         <v>383</v>
       </c>
@@ -5715,8 +6702,20 @@
       <c r="D82" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E82" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
         <v>384</v>
       </c>
@@ -5729,8 +6728,20 @@
       <c r="D83" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E83" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
         <v>385</v>
       </c>
@@ -5743,8 +6754,20 @@
       <c r="D84" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E84" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
         <v>386</v>
       </c>
@@ -5757,8 +6780,20 @@
       <c r="D85" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E85" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
         <v>387</v>
       </c>
@@ -5771,8 +6806,20 @@
       <c r="D86" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E86" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
         <v>388</v>
       </c>
@@ -5785,8 +6832,20 @@
       <c r="D87" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E87" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
         <v>389</v>
       </c>
@@ -5799,8 +6858,20 @@
       <c r="D88" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E88" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
         <v>390</v>
       </c>
@@ -5813,8 +6884,20 @@
       <c r="D89" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E89" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
         <v>391</v>
       </c>
@@ -5827,8 +6910,20 @@
       <c r="D90" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E90" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
         <v>392</v>
       </c>
@@ -5841,8 +6936,20 @@
       <c r="D91" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E91" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
         <v>393</v>
       </c>
@@ -5855,8 +6962,20 @@
       <c r="D92" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E92" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
         <v>394</v>
       </c>
@@ -5869,8 +6988,20 @@
       <c r="D93" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E93" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
         <v>395</v>
       </c>
@@ -5883,8 +7014,20 @@
       <c r="D94" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E94" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
         <v>396</v>
       </c>
@@ -5897,8 +7040,20 @@
       <c r="D95" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E95" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
         <v>397</v>
       </c>
@@ -5911,8 +7066,20 @@
       <c r="D96" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E96" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
         <v>398</v>
       </c>
@@ -5925,8 +7092,20 @@
       <c r="D97" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E97" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
         <v>399</v>
       </c>
@@ -5939,8 +7118,20 @@
       <c r="D98" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E98" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
         <v>400</v>
       </c>
@@ -5953,8 +7144,20 @@
       <c r="D99" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E99" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
         <v>401</v>
       </c>
@@ -5967,8 +7170,20 @@
       <c r="D100" s="1" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E100" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
         <v>402</v>
       </c>
@@ -5980,6 +7195,18 @@
       </c>
       <c r="D101" s="1" t="s">
         <v>686</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>698</v>
       </c>
     </row>
   </sheetData>

--- a/input1/CSV出力ツール用INPUT1.xlsx
+++ b/input1/CSV出力ツール用INPUT1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{BF0E8EE6-E4BD-4AEE-A845-E60E89301E83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E39FC891-D5C7-4DC6-8359-F523A41CD668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1140" windowWidth="19430" windowHeight="15070" firstSheet="1" activeTab="1" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
+    <workbookView xWindow="3510" yWindow="4390" windowWidth="19390" windowHeight="10990" firstSheet="1" activeTab="2" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV_OUTPUT_DATA" sheetId="1" r:id="rId1"/>
@@ -13,26 +13,18 @@
     <sheet name="JOB_INFO_DETAIL" sheetId="4" r:id="rId3"/>
     <sheet name="JOB_INFO_DETAIL2" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <oleSize ref="A1:I16"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:L14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="701">
   <si>
     <t>A_INTG_SO_NUM</t>
   </si>
@@ -2158,6 +2150,13 @@
   <si>
     <t>0</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KIJIRAN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AA：ああ　■BB：いい　■CC：うう</t>
   </si>
 </sst>
 </file>
@@ -4573,7 +4572,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7219,10 +7218,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D37E7B2-5521-4DD8-B41A-B07C73862D62}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7231,7 +7230,7 @@
     <col min="2" max="2" width="6.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7241,8 +7240,11 @@
       <c r="C1" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>305</v>
       </c>
@@ -7252,8 +7254,11 @@
       <c r="C2" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>306</v>
       </c>
@@ -7263,8 +7268,11 @@
       <c r="C3" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>304</v>
       </c>
@@ -7274,8 +7282,11 @@
       <c r="C4" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>308</v>
       </c>
@@ -7285,8 +7296,11 @@
       <c r="C5" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D5" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>309</v>
       </c>
@@ -7296,8 +7310,11 @@
       <c r="C6" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>310</v>
       </c>
@@ -7307,8 +7324,11 @@
       <c r="C7" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>311</v>
       </c>
@@ -7318,8 +7338,11 @@
       <c r="C8" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>307</v>
       </c>
@@ -7329,8 +7352,11 @@
       <c r="C9" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>312</v>
       </c>
@@ -7340,8 +7366,11 @@
       <c r="C10" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D10" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>313</v>
       </c>
@@ -7351,8 +7380,11 @@
       <c r="C11" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>314</v>
       </c>
@@ -7362,8 +7394,11 @@
       <c r="C12" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>303</v>
       </c>
@@ -7373,8 +7408,11 @@
       <c r="C13" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>315</v>
       </c>
@@ -7384,8 +7422,11 @@
       <c r="C14" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>316</v>
       </c>
@@ -7395,8 +7436,11 @@
       <c r="C15" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>317</v>
       </c>
@@ -7406,8 +7450,11 @@
       <c r="C16" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>318</v>
       </c>
@@ -7417,8 +7464,11 @@
       <c r="C17" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>319</v>
       </c>
@@ -7428,8 +7478,11 @@
       <c r="C18" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>320</v>
       </c>
@@ -7439,8 +7492,11 @@
       <c r="C19" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>321</v>
       </c>
@@ -7450,8 +7506,11 @@
       <c r="C20" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>322</v>
       </c>
@@ -7461,8 +7520,11 @@
       <c r="C21" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>323</v>
       </c>
@@ -7472,8 +7534,11 @@
       <c r="C22" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>324</v>
       </c>
@@ -7483,8 +7548,11 @@
       <c r="C23" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>325</v>
       </c>
@@ -7494,8 +7562,11 @@
       <c r="C24" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>326</v>
       </c>
@@ -7505,8 +7576,11 @@
       <c r="C25" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>327</v>
       </c>
@@ -7516,8 +7590,11 @@
       <c r="C26" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>328</v>
       </c>
@@ -7527,8 +7604,11 @@
       <c r="C27" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>329</v>
       </c>
@@ -7538,8 +7618,11 @@
       <c r="C28" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>330</v>
       </c>
@@ -7549,8 +7632,11 @@
       <c r="C29" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>331</v>
       </c>
@@ -7560,8 +7646,11 @@
       <c r="C30" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>332</v>
       </c>
@@ -7571,8 +7660,11 @@
       <c r="C31" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>333</v>
       </c>
@@ -7582,8 +7674,11 @@
       <c r="C32" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>334</v>
       </c>
@@ -7593,8 +7688,11 @@
       <c r="C33" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>335</v>
       </c>
@@ -7604,8 +7702,11 @@
       <c r="C34" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>336</v>
       </c>
@@ -7615,8 +7716,11 @@
       <c r="C35" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>337</v>
       </c>
@@ -7626,8 +7730,11 @@
       <c r="C36" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D36" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>338</v>
       </c>
@@ -7637,8 +7744,11 @@
       <c r="C37" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D37" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>339</v>
       </c>
@@ -7648,8 +7758,11 @@
       <c r="C38" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>340</v>
       </c>
@@ -7659,8 +7772,11 @@
       <c r="C39" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>341</v>
       </c>
@@ -7670,8 +7786,11 @@
       <c r="C40" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>342</v>
       </c>
@@ -7681,8 +7800,11 @@
       <c r="C41" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D41" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>343</v>
       </c>
@@ -7692,8 +7814,11 @@
       <c r="C42" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>344</v>
       </c>
@@ -7703,8 +7828,11 @@
       <c r="C43" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D43" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>345</v>
       </c>
@@ -7714,8 +7842,11 @@
       <c r="C44" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D44" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>346</v>
       </c>
@@ -7725,8 +7856,11 @@
       <c r="C45" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D45" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>347</v>
       </c>
@@ -7736,8 +7870,11 @@
       <c r="C46" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D46" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>348</v>
       </c>
@@ -7747,8 +7884,11 @@
       <c r="C47" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D47" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>349</v>
       </c>
@@ -7758,8 +7898,11 @@
       <c r="C48" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D48" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>350</v>
       </c>
@@ -7769,8 +7912,11 @@
       <c r="C49" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D49" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>351</v>
       </c>
@@ -7780,8 +7926,11 @@
       <c r="C50" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D50" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>352</v>
       </c>
@@ -7791,8 +7940,11 @@
       <c r="C51" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D51" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>353</v>
       </c>
@@ -7802,8 +7954,11 @@
       <c r="C52" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D52" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>354</v>
       </c>
@@ -7813,8 +7968,11 @@
       <c r="C53" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D53" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>355</v>
       </c>
@@ -7824,8 +7982,11 @@
       <c r="C54" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D54" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>356</v>
       </c>
@@ -7835,8 +7996,11 @@
       <c r="C55" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D55" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>357</v>
       </c>
@@ -7846,8 +8010,11 @@
       <c r="C56" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>358</v>
       </c>
@@ -7857,8 +8024,11 @@
       <c r="C57" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D57" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>359</v>
       </c>
@@ -7868,8 +8038,11 @@
       <c r="C58" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D58" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>360</v>
       </c>
@@ -7879,8 +8052,11 @@
       <c r="C59" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D59" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>361</v>
       </c>
@@ -7890,8 +8066,11 @@
       <c r="C60" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D60" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>362</v>
       </c>
@@ -7901,8 +8080,11 @@
       <c r="C61" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D61" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>363</v>
       </c>
@@ -7912,8 +8094,11 @@
       <c r="C62" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D62" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>364</v>
       </c>
@@ -7923,8 +8108,11 @@
       <c r="C63" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D63" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>365</v>
       </c>
@@ -7934,8 +8122,11 @@
       <c r="C64" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D64" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>366</v>
       </c>
@@ -7945,8 +8136,11 @@
       <c r="C65" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D65" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>367</v>
       </c>
@@ -7956,8 +8150,11 @@
       <c r="C66" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D66" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>368</v>
       </c>
@@ -7967,8 +8164,11 @@
       <c r="C67" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D67" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>369</v>
       </c>
@@ -7978,8 +8178,11 @@
       <c r="C68" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D68" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>370</v>
       </c>
@@ -7989,8 +8192,11 @@
       <c r="C69" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D69" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>371</v>
       </c>
@@ -8000,8 +8206,11 @@
       <c r="C70" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D70" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>372</v>
       </c>
@@ -8011,8 +8220,11 @@
       <c r="C71" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D71" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>373</v>
       </c>
@@ -8022,8 +8234,11 @@
       <c r="C72" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D72" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>374</v>
       </c>
@@ -8033,8 +8248,11 @@
       <c r="C73" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D73" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>375</v>
       </c>
@@ -8044,8 +8262,11 @@
       <c r="C74" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D74" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>376</v>
       </c>
@@ -8055,8 +8276,11 @@
       <c r="C75" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D75" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>377</v>
       </c>
@@ -8066,8 +8290,11 @@
       <c r="C76" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D76" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>378</v>
       </c>
@@ -8077,8 +8304,11 @@
       <c r="C77" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D77" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>379</v>
       </c>
@@ -8088,8 +8318,11 @@
       <c r="C78" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D78" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>380</v>
       </c>
@@ -8099,8 +8332,11 @@
       <c r="C79" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D79" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>381</v>
       </c>
@@ -8110,8 +8346,11 @@
       <c r="C80" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D80" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>382</v>
       </c>
@@ -8121,8 +8360,11 @@
       <c r="C81" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>383</v>
       </c>
@@ -8132,8 +8374,11 @@
       <c r="C82" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>384</v>
       </c>
@@ -8143,8 +8388,11 @@
       <c r="C83" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D83" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>385</v>
       </c>
@@ -8154,8 +8402,11 @@
       <c r="C84" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D84" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
         <v>386</v>
       </c>
@@ -8165,8 +8416,11 @@
       <c r="C85" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D85" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
         <v>387</v>
       </c>
@@ -8176,8 +8430,11 @@
       <c r="C86" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D86" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
         <v>388</v>
       </c>
@@ -8187,8 +8444,11 @@
       <c r="C87" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D87" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
         <v>389</v>
       </c>
@@ -8198,8 +8458,11 @@
       <c r="C88" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D88" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
         <v>390</v>
       </c>
@@ -8209,8 +8472,11 @@
       <c r="C89" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D89" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
         <v>391</v>
       </c>
@@ -8220,8 +8486,11 @@
       <c r="C90" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D90" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
         <v>392</v>
       </c>
@@ -8231,8 +8500,11 @@
       <c r="C91" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D91" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
         <v>393</v>
       </c>
@@ -8242,8 +8514,11 @@
       <c r="C92" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D92" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
         <v>394</v>
       </c>
@@ -8253,8 +8528,11 @@
       <c r="C93" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D93" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
         <v>395</v>
       </c>
@@ -8264,8 +8542,11 @@
       <c r="C94" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D94" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
         <v>396</v>
       </c>
@@ -8275,8 +8556,11 @@
       <c r="C95" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D95" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
         <v>397</v>
       </c>
@@ -8286,8 +8570,11 @@
       <c r="C96" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D96" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
         <v>398</v>
       </c>
@@ -8297,8 +8584,11 @@
       <c r="C97" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D97" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
         <v>399</v>
       </c>
@@ -8308,8 +8598,11 @@
       <c r="C98" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D98" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
         <v>400</v>
       </c>
@@ -8319,8 +8612,11 @@
       <c r="C99" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D99" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
         <v>401</v>
       </c>
@@ -8330,8 +8626,11 @@
       <c r="C100" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D100" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
         <v>402</v>
       </c>
@@ -8340,11 +8639,15 @@
       </c>
       <c r="C101" t="s">
         <v>683</v>
+      </c>
+      <c r="D101" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/input1/CSV出力ツール用INPUT1.xlsx
+++ b/input1/CSV出力ツール用INPUT1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{E39FC891-D5C7-4DC6-8359-F523A41CD668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3BBC2477-81E1-442F-BCB2-3CBFCFDFF22C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="4390" windowWidth="19390" windowHeight="10990" firstSheet="1" activeTab="2" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
+    <workbookView xWindow="3850" yWindow="4730" windowWidth="19390" windowHeight="10990" activeTab="2" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV_OUTPUT_DATA" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="JOB_INFO_DETAIL2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L14"/>
+  <oleSize ref="A1:M9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="702">
   <si>
     <t>A_INTG_SO_NUM</t>
   </si>
@@ -2156,7 +2156,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AA：ああ　■BB：いい　■CC：うう</t>
+    <t>AA：ああ　■注文種類：品目変更（新設）　■CC：うう</t>
+    <rPh sb="7" eb="9">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AA：ああ　■注文種類：新設　■CC：うう</t>
+    <rPh sb="7" eb="9">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2527,9 +2544,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -4572,7 +4587,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7221,7 +7238,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7255,7 +7272,7 @@
         <v>683</v>
       </c>
       <c r="D2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7283,7 +7300,7 @@
         <v>683</v>
       </c>
       <c r="D4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7311,7 +7328,7 @@
         <v>683</v>
       </c>
       <c r="D6" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7339,7 +7356,7 @@
         <v>683</v>
       </c>
       <c r="D8" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7367,7 +7384,7 @@
         <v>683</v>
       </c>
       <c r="D10" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7395,7 +7412,7 @@
         <v>683</v>
       </c>
       <c r="D12" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7423,7 +7440,7 @@
         <v>683</v>
       </c>
       <c r="D14" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7451,7 +7468,7 @@
         <v>683</v>
       </c>
       <c r="D16" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7479,7 +7496,7 @@
         <v>683</v>
       </c>
       <c r="D18" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7507,7 +7524,7 @@
         <v>683</v>
       </c>
       <c r="D20" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7535,7 +7552,7 @@
         <v>683</v>
       </c>
       <c r="D22" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7563,7 +7580,7 @@
         <v>683</v>
       </c>
       <c r="D24" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7591,7 +7608,7 @@
         <v>683</v>
       </c>
       <c r="D26" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7619,7 +7636,7 @@
         <v>683</v>
       </c>
       <c r="D28" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7647,7 +7664,7 @@
         <v>683</v>
       </c>
       <c r="D30" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7675,7 +7692,7 @@
         <v>683</v>
       </c>
       <c r="D32" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7703,7 +7720,7 @@
         <v>683</v>
       </c>
       <c r="D34" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7731,7 +7748,7 @@
         <v>683</v>
       </c>
       <c r="D36" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7759,7 +7776,7 @@
         <v>683</v>
       </c>
       <c r="D38" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7787,7 +7804,7 @@
         <v>683</v>
       </c>
       <c r="D40" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7815,7 +7832,7 @@
         <v>683</v>
       </c>
       <c r="D42" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7843,7 +7860,7 @@
         <v>683</v>
       </c>
       <c r="D44" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7871,7 +7888,7 @@
         <v>683</v>
       </c>
       <c r="D46" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7899,7 +7916,7 @@
         <v>683</v>
       </c>
       <c r="D48" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7927,7 +7944,7 @@
         <v>683</v>
       </c>
       <c r="D50" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7955,7 +7972,7 @@
         <v>683</v>
       </c>
       <c r="D52" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7983,7 +8000,7 @@
         <v>683</v>
       </c>
       <c r="D54" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8011,7 +8028,7 @@
         <v>683</v>
       </c>
       <c r="D56" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8039,7 +8056,7 @@
         <v>683</v>
       </c>
       <c r="D58" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8067,7 +8084,7 @@
         <v>683</v>
       </c>
       <c r="D60" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8647,7 +8664,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/input1/CSV出力ツール用INPUT1.xlsx
+++ b/input1/CSV出力ツール用INPUT1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{3BBC2477-81E1-442F-BCB2-3CBFCFDFF22C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C4E1B8CB-A267-4F45-AD0A-B780AACE63D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3850" yWindow="4730" windowWidth="19390" windowHeight="10990" activeTab="2" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="19430" windowHeight="15070" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV_OUTPUT_DATA" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="JOB_INFO_DETAIL2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M9"/>
+  <oleSize ref="A1:K13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="703">
   <si>
     <t>A_INTG_SO_NUM</t>
   </si>
@@ -2101,6 +2101,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>102P</t>
+  </si>
+  <si>
+    <t>102Q</t>
+  </si>
+  <si>
+    <t>102R</t>
+  </si>
+  <si>
+    <t>102S</t>
+  </si>
+  <si>
     <t>JYUUKYO_KEITAI</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2114,41 +2126,6 @@
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E_ACC_WIT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>１０２Ｑ</t>
-  </si>
-  <si>
-    <t>１０２Ｓ</t>
-  </si>
-  <si>
-    <t>１０２Ｒ</t>
-  </si>
-  <si>
-    <t>１０２Ｐ</t>
-  </si>
-  <si>
-    <t>RMT_EXAM_SITS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G_ELC_REQ_FLAG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G_RD_COP_REQ_FLG</t>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2173,6 +2150,30 @@
     <rPh sb="9" eb="11">
       <t>シュルイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RMT_EXAM_SITS</t>
+  </si>
+  <si>
+    <t>E_ACC_WIT</t>
+  </si>
+  <si>
+    <t>G_ELC_REQ_FLAG</t>
+  </si>
+  <si>
+    <t>G_RD_COP_REQ_FLG</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2542,25 +2543,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E81AF559-CF42-43C6-B25E-68C9FE5742F9}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:EK101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="20.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2574,13 +2577,147 @@
       <c r="F1" s="1" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
+      <c r="BK1"/>
+      <c r="BL1"/>
+      <c r="BM1"/>
+      <c r="BN1"/>
+      <c r="BO1"/>
+      <c r="BP1"/>
+      <c r="BQ1"/>
+      <c r="BR1"/>
+      <c r="BS1"/>
+      <c r="BT1"/>
+      <c r="BU1"/>
+      <c r="BV1"/>
+      <c r="BW1"/>
+      <c r="BX1"/>
+      <c r="BY1"/>
+      <c r="BZ1"/>
+      <c r="CA1"/>
+      <c r="CB1"/>
+      <c r="CC1"/>
+      <c r="CD1"/>
+      <c r="CE1"/>
+      <c r="CF1"/>
+      <c r="CG1"/>
+      <c r="CH1"/>
+      <c r="CI1"/>
+      <c r="CJ1"/>
+      <c r="CK1"/>
+      <c r="CL1"/>
+      <c r="CM1"/>
+      <c r="CN1"/>
+      <c r="CO1"/>
+      <c r="CP1"/>
+      <c r="CQ1"/>
+      <c r="CR1"/>
+      <c r="CS1"/>
+      <c r="CT1"/>
+      <c r="CU1"/>
+      <c r="CV1"/>
+      <c r="CW1"/>
+      <c r="CX1"/>
+      <c r="CY1"/>
+      <c r="CZ1"/>
+      <c r="DA1"/>
+      <c r="DB1"/>
+      <c r="DC1"/>
+      <c r="DD1"/>
+      <c r="DE1"/>
+      <c r="DF1"/>
+      <c r="DG1"/>
+      <c r="DH1"/>
+      <c r="DI1"/>
+      <c r="DJ1"/>
+      <c r="DK1"/>
+      <c r="DL1"/>
+      <c r="DM1"/>
+      <c r="DN1"/>
+      <c r="DO1"/>
+      <c r="DP1"/>
+      <c r="DQ1"/>
+      <c r="DR1"/>
+      <c r="DS1"/>
+      <c r="DT1"/>
+      <c r="DU1"/>
+      <c r="DV1"/>
+      <c r="DW1"/>
+      <c r="DX1"/>
+      <c r="DY1"/>
+      <c r="DZ1"/>
+      <c r="EA1"/>
+      <c r="EB1"/>
+      <c r="EC1"/>
+      <c r="ED1"/>
+      <c r="EE1"/>
+      <c r="EF1"/>
+      <c r="EG1"/>
+      <c r="EH1"/>
+      <c r="EI1"/>
+      <c r="EJ1"/>
+    </row>
+    <row r="2" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>204</v>
@@ -2592,15 +2729,15 @@
         <v>681</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="3" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>206</v>
@@ -2612,15 +2749,15 @@
         <v>681</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="4" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>215</v>
@@ -2632,15 +2769,15 @@
         <v>681</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>207</v>
@@ -2652,15 +2789,15 @@
         <v>681</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>208</v>
@@ -2672,15 +2809,15 @@
         <v>681</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>209</v>
@@ -2692,15 +2829,15 @@
         <v>681</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="8" spans="1:141" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>203</v>
@@ -2712,15 +2849,15 @@
         <v>681</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>310</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>210</v>
@@ -2732,15 +2869,15 @@
         <v>681</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>212</v>
@@ -2752,15 +2889,15 @@
         <v>681</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="11" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>213</v>
@@ -2772,15 +2909,15 @@
         <v>681</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="12" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>205</v>
@@ -2792,15 +2929,15 @@
         <v>681</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>214</v>
@@ -2812,15 +2949,15 @@
         <v>681</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>216</v>
@@ -2832,15 +2969,15 @@
         <v>681</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>217</v>
@@ -2852,15 +2989,15 @@
         <v>681</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="16" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>218</v>
@@ -2872,15 +3009,15 @@
         <v>681</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>219</v>
@@ -2892,15 +3029,15 @@
         <v>681</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>220</v>
@@ -2912,15 +3049,15 @@
         <v>681</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="19" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>321</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>221</v>
@@ -2932,15 +3069,15 @@
         <v>681</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="20" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>211</v>
@@ -2952,15 +3089,15 @@
         <v>681</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>222</v>
@@ -2972,15 +3109,15 @@
         <v>681</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="22" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>223</v>
@@ -2992,15 +3129,15 @@
         <v>681</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>324</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>224</v>
@@ -3012,15 +3149,15 @@
         <v>681</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>325</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>225</v>
@@ -3032,15 +3169,15 @@
         <v>681</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>226</v>
@@ -3052,15 +3189,15 @@
         <v>681</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="26" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>327</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>227</v>
@@ -3072,15 +3209,15 @@
         <v>681</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>328</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>228</v>
@@ -3092,15 +3229,15 @@
         <v>681</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>229</v>
@@ -3112,15 +3249,15 @@
         <v>681</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="29" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>330</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>230</v>
@@ -3132,15 +3269,15 @@
         <v>681</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="30" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>231</v>
@@ -3152,15 +3289,15 @@
         <v>681</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="31" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>332</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>232</v>
@@ -3172,15 +3309,15 @@
         <v>681</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="32" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>333</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>233</v>
@@ -3192,15 +3329,15 @@
         <v>681</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="33" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>234</v>
@@ -3212,15 +3349,15 @@
         <v>681</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>235</v>
@@ -3232,15 +3369,15 @@
         <v>681</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="35" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>336</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>236</v>
@@ -3252,15 +3389,15 @@
         <v>681</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="36" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>337</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>237</v>
@@ -3272,15 +3409,15 @@
         <v>681</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="37" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>338</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>238</v>
@@ -3292,15 +3429,15 @@
         <v>681</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="38" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>239</v>
@@ -3312,15 +3449,15 @@
         <v>681</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="39" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>340</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>240</v>
@@ -3332,15 +3469,15 @@
         <v>681</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="40" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>341</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>241</v>
@@ -3352,15 +3489,15 @@
         <v>681</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="41" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>242</v>
@@ -3372,15 +3509,15 @@
         <v>681</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="42" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>343</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>243</v>
@@ -3392,15 +3529,15 @@
         <v>681</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="43" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>244</v>
@@ -3412,15 +3549,15 @@
         <v>681</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="44" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>245</v>
@@ -3432,15 +3569,15 @@
         <v>681</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="45" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>346</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>246</v>
@@ -3452,15 +3589,15 @@
         <v>681</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="46" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>247</v>
@@ -3472,15 +3609,15 @@
         <v>681</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>348</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>248</v>
@@ -3492,15 +3629,15 @@
         <v>681</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="48" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>249</v>
@@ -3512,15 +3649,15 @@
         <v>681</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="49" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>250</v>
@@ -3532,15 +3669,15 @@
         <v>681</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="50" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>351</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>251</v>
@@ -3552,15 +3689,15 @@
         <v>681</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="51" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>252</v>
@@ -3572,15 +3709,15 @@
         <v>681</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="52" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>353</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>253</v>
@@ -3592,15 +3729,15 @@
         <v>681</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="53" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>354</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>254</v>
@@ -3612,15 +3749,15 @@
         <v>681</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="54" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>355</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>255</v>
@@ -3632,15 +3769,15 @@
         <v>681</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>356</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>256</v>
@@ -3652,15 +3789,15 @@
         <v>681</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="56" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>257</v>
@@ -3672,15 +3809,15 @@
         <v>681</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="57" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>258</v>
@@ -3692,15 +3829,15 @@
         <v>681</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="58" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>359</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>259</v>
@@ -3712,15 +3849,15 @@
         <v>681</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="59" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>260</v>
@@ -3732,15 +3869,15 @@
         <v>681</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1" t="s">
         <v>361</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>261</v>
@@ -3752,15 +3889,15 @@
         <v>681</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1" t="s">
         <v>362</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>262</v>
@@ -3772,15 +3909,15 @@
         <v>681</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="62" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>263</v>
@@ -3792,15 +3929,15 @@
         <v>681</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="63" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>364</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>264</v>
@@ -3812,15 +3949,15 @@
         <v>681</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="64" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>365</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>265</v>
@@ -3832,15 +3969,15 @@
         <v>681</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="65" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>266</v>
@@ -3852,15 +3989,15 @@
         <v>681</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="66" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>267</v>
@@ -3872,15 +4009,15 @@
         <v>681</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="67" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>268</v>
@@ -3892,15 +4029,15 @@
         <v>681</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="68" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>369</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>269</v>
@@ -3912,15 +4049,15 @@
         <v>681</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="69" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>370</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>270</v>
@@ -3932,15 +4069,15 @@
         <v>681</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>271</v>
@@ -3952,15 +4089,15 @@
         <v>681</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="71" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>372</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>272</v>
@@ -3972,15 +4109,15 @@
         <v>681</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="72" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>373</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>273</v>
@@ -3992,15 +4129,15 @@
         <v>681</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="73" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>274</v>
@@ -4012,15 +4149,15 @@
         <v>681</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="74" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="1" t="s">
         <v>375</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>275</v>
@@ -4032,15 +4169,15 @@
         <v>681</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="75" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>376</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>276</v>
@@ -4052,15 +4189,15 @@
         <v>681</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="76" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1" t="s">
         <v>377</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>277</v>
@@ -4072,15 +4209,15 @@
         <v>681</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="77" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1" t="s">
         <v>378</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>278</v>
@@ -4092,15 +4229,15 @@
         <v>681</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="78" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="1" t="s">
         <v>379</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>279</v>
@@ -4112,15 +4249,15 @@
         <v>681</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="79" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="1" t="s">
         <v>380</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>280</v>
@@ -4132,15 +4269,15 @@
         <v>681</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="80" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>281</v>
@@ -4152,15 +4289,15 @@
         <v>681</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="81" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>282</v>
@@ -4172,15 +4309,15 @@
         <v>681</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="82" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1" t="s">
         <v>383</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>283</v>
@@ -4192,15 +4329,15 @@
         <v>681</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="83" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>384</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>284</v>
@@ -4212,15 +4349,15 @@
         <v>681</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="84" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>285</v>
@@ -4232,15 +4369,15 @@
         <v>681</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="85" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>386</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>286</v>
@@ -4252,15 +4389,15 @@
         <v>681</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="86" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>287</v>
@@ -4272,15 +4409,15 @@
         <v>681</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="87" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>288</v>
@@ -4292,15 +4429,15 @@
         <v>681</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="88" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>289</v>
@@ -4312,15 +4449,15 @@
         <v>681</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="89" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>290</v>
@@ -4332,15 +4469,15 @@
         <v>681</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="90" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>391</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>291</v>
@@ -4352,15 +4489,15 @@
         <v>681</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="91" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>392</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>292</v>
@@ -4372,15 +4509,15 @@
         <v>681</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="92" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>393</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>293</v>
@@ -4392,15 +4529,15 @@
         <v>681</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="93" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>294</v>
@@ -4412,15 +4549,15 @@
         <v>681</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="94" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>395</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>295</v>
@@ -4432,15 +4569,15 @@
         <v>681</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="95" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>396</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>296</v>
@@ -4452,15 +4589,15 @@
         <v>681</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="96" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>297</v>
@@ -4472,15 +4609,15 @@
         <v>681</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="97" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>298</v>
@@ -4492,15 +4629,15 @@
         <v>681</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="98" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>399</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>299</v>
@@ -4512,15 +4649,15 @@
         <v>681</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="99" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>300</v>
@@ -4532,15 +4669,15 @@
         <v>681</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="100" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>301</v>
@@ -4552,15 +4689,15 @@
         <v>681</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="101" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="1" t="s">
         <v>402</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>302</v>
@@ -4572,7 +4709,7 @@
         <v>681</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
   </sheetData>
@@ -4587,8 +4724,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4610,19 +4747,19 @@
         <v>407</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4636,19 +4773,19 @@
         <v>669</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4662,19 +4799,19 @@
         <v>670</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4688,19 +4825,19 @@
         <v>669</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4714,19 +4851,19 @@
         <v>669</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4740,19 +4877,19 @@
         <v>671</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4766,19 +4903,19 @@
         <v>672</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4792,19 +4929,19 @@
         <v>669</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4818,19 +4955,19 @@
         <v>669</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4844,19 +4981,19 @@
         <v>672</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4870,19 +5007,19 @@
         <v>672</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4896,19 +5033,19 @@
         <v>671</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4922,19 +5059,19 @@
         <v>669</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4948,19 +5085,19 @@
         <v>672</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -4974,19 +5111,19 @@
         <v>669</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5000,19 +5137,19 @@
         <v>670</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5026,19 +5163,19 @@
         <v>671</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5052,19 +5189,19 @@
         <v>669</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5078,19 +5215,19 @@
         <v>669</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5104,19 +5241,19 @@
         <v>669</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5130,19 +5267,19 @@
         <v>672</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5156,19 +5293,19 @@
         <v>672</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5182,19 +5319,19 @@
         <v>669</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5208,19 +5345,19 @@
         <v>672</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5234,19 +5371,19 @@
         <v>671</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5260,19 +5397,19 @@
         <v>671</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5286,19 +5423,19 @@
         <v>669</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5312,19 +5449,19 @@
         <v>670</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5338,19 +5475,19 @@
         <v>669</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5364,19 +5501,19 @@
         <v>672</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5390,19 +5527,19 @@
         <v>670</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5416,19 +5553,19 @@
         <v>669</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5442,19 +5579,19 @@
         <v>671</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5468,19 +5605,19 @@
         <v>672</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5494,19 +5631,19 @@
         <v>672</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5520,19 +5657,19 @@
         <v>669</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5546,19 +5683,19 @@
         <v>672</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5572,19 +5709,19 @@
         <v>669</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5598,19 +5735,19 @@
         <v>669</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5624,19 +5761,19 @@
         <v>669</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5650,19 +5787,19 @@
         <v>671</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5676,19 +5813,19 @@
         <v>669</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5702,19 +5839,19 @@
         <v>669</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5728,19 +5865,19 @@
         <v>670</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5754,19 +5891,19 @@
         <v>669</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5780,19 +5917,19 @@
         <v>671</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5806,19 +5943,19 @@
         <v>669</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5832,19 +5969,19 @@
         <v>669</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5858,19 +5995,19 @@
         <v>669</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5884,19 +6021,19 @@
         <v>671</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5910,19 +6047,19 @@
         <v>671</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5936,19 +6073,19 @@
         <v>671</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5962,19 +6099,19 @@
         <v>672</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -5988,19 +6125,19 @@
         <v>669</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6014,19 +6151,19 @@
         <v>671</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6040,19 +6177,19 @@
         <v>669</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6066,19 +6203,19 @@
         <v>672</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6092,19 +6229,19 @@
         <v>669</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6118,19 +6255,19 @@
         <v>672</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6144,19 +6281,19 @@
         <v>669</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6170,19 +6307,19 @@
         <v>669</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6196,19 +6333,19 @@
         <v>672</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6222,19 +6359,19 @@
         <v>671</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6248,19 +6385,19 @@
         <v>671</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6274,19 +6411,19 @@
         <v>669</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6300,19 +6437,19 @@
         <v>669</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6326,19 +6463,19 @@
         <v>669</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6352,19 +6489,19 @@
         <v>671</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6378,19 +6515,19 @@
         <v>669</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6404,19 +6541,19 @@
         <v>669</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6430,19 +6567,19 @@
         <v>671</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6456,19 +6593,19 @@
         <v>670</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6482,19 +6619,19 @@
         <v>669</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6508,19 +6645,19 @@
         <v>670</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6534,19 +6671,19 @@
         <v>670</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6560,19 +6697,19 @@
         <v>671</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6586,19 +6723,19 @@
         <v>671</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6612,19 +6749,19 @@
         <v>669</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6638,19 +6775,19 @@
         <v>671</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6664,19 +6801,19 @@
         <v>669</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6690,19 +6827,19 @@
         <v>671</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6716,19 +6853,19 @@
         <v>671</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6742,19 +6879,19 @@
         <v>669</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6768,19 +6905,19 @@
         <v>671</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6794,19 +6931,19 @@
         <v>671</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6820,19 +6957,19 @@
         <v>669</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6846,19 +6983,19 @@
         <v>672</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6872,19 +7009,19 @@
         <v>669</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6898,19 +7035,19 @@
         <v>671</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6924,19 +7061,19 @@
         <v>672</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6950,19 +7087,19 @@
         <v>670</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6976,19 +7113,19 @@
         <v>669</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7002,19 +7139,19 @@
         <v>671</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7028,19 +7165,19 @@
         <v>669</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7054,19 +7191,19 @@
         <v>671</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7080,19 +7217,19 @@
         <v>671</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7106,19 +7243,19 @@
         <v>669</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7132,19 +7269,19 @@
         <v>672</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7158,19 +7295,19 @@
         <v>669</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7184,19 +7321,19 @@
         <v>669</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -7210,19 +7347,19 @@
         <v>669</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>688</v>
+        <v>701</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -7237,8 +7374,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7258,7 +7395,7 @@
         <v>682</v>
       </c>
       <c r="D1" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7272,7 +7409,7 @@
         <v>683</v>
       </c>
       <c r="D2" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7286,7 +7423,7 @@
         <v>683</v>
       </c>
       <c r="D3" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7300,7 +7437,7 @@
         <v>683</v>
       </c>
       <c r="D4" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7314,7 +7451,7 @@
         <v>683</v>
       </c>
       <c r="D5" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7328,7 +7465,7 @@
         <v>683</v>
       </c>
       <c r="D6" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7342,7 +7479,7 @@
         <v>683</v>
       </c>
       <c r="D7" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7356,7 +7493,7 @@
         <v>683</v>
       </c>
       <c r="D8" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7370,7 +7507,7 @@
         <v>683</v>
       </c>
       <c r="D9" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7384,7 +7521,7 @@
         <v>683</v>
       </c>
       <c r="D10" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7398,7 +7535,7 @@
         <v>683</v>
       </c>
       <c r="D11" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7412,7 +7549,7 @@
         <v>683</v>
       </c>
       <c r="D12" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7426,7 +7563,7 @@
         <v>683</v>
       </c>
       <c r="D13" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7440,7 +7577,7 @@
         <v>683</v>
       </c>
       <c r="D14" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7454,7 +7591,7 @@
         <v>683</v>
       </c>
       <c r="D15" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7468,7 +7605,7 @@
         <v>683</v>
       </c>
       <c r="D16" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7482,7 +7619,7 @@
         <v>683</v>
       </c>
       <c r="D17" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7496,7 +7633,7 @@
         <v>683</v>
       </c>
       <c r="D18" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7510,7 +7647,7 @@
         <v>683</v>
       </c>
       <c r="D19" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7524,7 +7661,7 @@
         <v>683</v>
       </c>
       <c r="D20" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7538,7 +7675,7 @@
         <v>683</v>
       </c>
       <c r="D21" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7552,7 +7689,7 @@
         <v>683</v>
       </c>
       <c r="D22" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7566,7 +7703,7 @@
         <v>683</v>
       </c>
       <c r="D23" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7580,7 +7717,7 @@
         <v>683</v>
       </c>
       <c r="D24" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7594,7 +7731,7 @@
         <v>683</v>
       </c>
       <c r="D25" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7608,7 +7745,7 @@
         <v>683</v>
       </c>
       <c r="D26" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7622,7 +7759,7 @@
         <v>683</v>
       </c>
       <c r="D27" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7636,7 +7773,7 @@
         <v>683</v>
       </c>
       <c r="D28" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7650,7 +7787,7 @@
         <v>683</v>
       </c>
       <c r="D29" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7664,7 +7801,7 @@
         <v>683</v>
       </c>
       <c r="D30" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7678,7 +7815,7 @@
         <v>683</v>
       </c>
       <c r="D31" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7692,7 +7829,7 @@
         <v>683</v>
       </c>
       <c r="D32" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7706,7 +7843,7 @@
         <v>683</v>
       </c>
       <c r="D33" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7720,7 +7857,7 @@
         <v>683</v>
       </c>
       <c r="D34" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7734,7 +7871,7 @@
         <v>683</v>
       </c>
       <c r="D35" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7748,7 +7885,7 @@
         <v>683</v>
       </c>
       <c r="D36" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7762,7 +7899,7 @@
         <v>683</v>
       </c>
       <c r="D37" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7776,7 +7913,7 @@
         <v>683</v>
       </c>
       <c r="D38" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7790,7 +7927,7 @@
         <v>683</v>
       </c>
       <c r="D39" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7804,7 +7941,7 @@
         <v>683</v>
       </c>
       <c r="D40" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7818,7 +7955,7 @@
         <v>683</v>
       </c>
       <c r="D41" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7832,7 +7969,7 @@
         <v>683</v>
       </c>
       <c r="D42" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7846,7 +7983,7 @@
         <v>683</v>
       </c>
       <c r="D43" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7860,7 +7997,7 @@
         <v>683</v>
       </c>
       <c r="D44" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7874,7 +8011,7 @@
         <v>683</v>
       </c>
       <c r="D45" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7888,7 +8025,7 @@
         <v>683</v>
       </c>
       <c r="D46" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7902,7 +8039,7 @@
         <v>683</v>
       </c>
       <c r="D47" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7916,7 +8053,7 @@
         <v>683</v>
       </c>
       <c r="D48" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7930,7 +8067,7 @@
         <v>683</v>
       </c>
       <c r="D49" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7944,7 +8081,7 @@
         <v>683</v>
       </c>
       <c r="D50" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7958,7 +8095,7 @@
         <v>683</v>
       </c>
       <c r="D51" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7972,7 +8109,7 @@
         <v>683</v>
       </c>
       <c r="D52" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -7986,7 +8123,7 @@
         <v>683</v>
       </c>
       <c r="D53" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8000,7 +8137,7 @@
         <v>683</v>
       </c>
       <c r="D54" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8014,7 +8151,7 @@
         <v>683</v>
       </c>
       <c r="D55" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8028,7 +8165,7 @@
         <v>683</v>
       </c>
       <c r="D56" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8042,7 +8179,7 @@
         <v>683</v>
       </c>
       <c r="D57" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8056,7 +8193,7 @@
         <v>683</v>
       </c>
       <c r="D58" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8070,7 +8207,7 @@
         <v>683</v>
       </c>
       <c r="D59" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8084,7 +8221,7 @@
         <v>683</v>
       </c>
       <c r="D60" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8098,7 +8235,7 @@
         <v>683</v>
       </c>
       <c r="D61" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8112,7 +8249,7 @@
         <v>683</v>
       </c>
       <c r="D62" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8126,7 +8263,7 @@
         <v>683</v>
       </c>
       <c r="D63" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8140,7 +8277,7 @@
         <v>683</v>
       </c>
       <c r="D64" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8154,7 +8291,7 @@
         <v>683</v>
       </c>
       <c r="D65" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8168,7 +8305,7 @@
         <v>683</v>
       </c>
       <c r="D66" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8182,7 +8319,7 @@
         <v>683</v>
       </c>
       <c r="D67" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8196,7 +8333,7 @@
         <v>683</v>
       </c>
       <c r="D68" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8210,7 +8347,7 @@
         <v>683</v>
       </c>
       <c r="D69" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8224,7 +8361,7 @@
         <v>683</v>
       </c>
       <c r="D70" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8238,7 +8375,7 @@
         <v>683</v>
       </c>
       <c r="D71" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8252,7 +8389,7 @@
         <v>683</v>
       </c>
       <c r="D72" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8266,7 +8403,7 @@
         <v>683</v>
       </c>
       <c r="D73" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8280,7 +8417,7 @@
         <v>683</v>
       </c>
       <c r="D74" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8294,7 +8431,7 @@
         <v>683</v>
       </c>
       <c r="D75" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8308,7 +8445,7 @@
         <v>683</v>
       </c>
       <c r="D76" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8322,7 +8459,7 @@
         <v>683</v>
       </c>
       <c r="D77" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8336,7 +8473,7 @@
         <v>683</v>
       </c>
       <c r="D78" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8350,7 +8487,7 @@
         <v>683</v>
       </c>
       <c r="D79" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8364,7 +8501,7 @@
         <v>683</v>
       </c>
       <c r="D80" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8378,7 +8515,7 @@
         <v>683</v>
       </c>
       <c r="D81" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8392,7 +8529,7 @@
         <v>683</v>
       </c>
       <c r="D82" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8406,7 +8543,7 @@
         <v>683</v>
       </c>
       <c r="D83" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8420,7 +8557,7 @@
         <v>683</v>
       </c>
       <c r="D84" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8434,7 +8571,7 @@
         <v>683</v>
       </c>
       <c r="D85" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8448,7 +8585,7 @@
         <v>683</v>
       </c>
       <c r="D86" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8462,7 +8599,7 @@
         <v>683</v>
       </c>
       <c r="D87" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8476,7 +8613,7 @@
         <v>683</v>
       </c>
       <c r="D88" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8490,7 +8627,7 @@
         <v>683</v>
       </c>
       <c r="D89" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8504,7 +8641,7 @@
         <v>683</v>
       </c>
       <c r="D90" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8518,7 +8655,7 @@
         <v>683</v>
       </c>
       <c r="D91" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8532,7 +8669,7 @@
         <v>683</v>
       </c>
       <c r="D92" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8546,7 +8683,7 @@
         <v>683</v>
       </c>
       <c r="D93" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8560,7 +8697,7 @@
         <v>683</v>
       </c>
       <c r="D94" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8574,7 +8711,7 @@
         <v>683</v>
       </c>
       <c r="D95" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8588,7 +8725,7 @@
         <v>683</v>
       </c>
       <c r="D96" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8602,7 +8739,7 @@
         <v>683</v>
       </c>
       <c r="D97" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8616,7 +8753,7 @@
         <v>683</v>
       </c>
       <c r="D98" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8630,7 +8767,7 @@
         <v>683</v>
       </c>
       <c r="D99" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8644,7 +8781,7 @@
         <v>683</v>
       </c>
       <c r="D100" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -8658,12 +8795,13 @@
         <v>683</v>
       </c>
       <c r="D101" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8673,7 +8811,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/input1/CSV出力ツール用INPUT1.xlsx
+++ b/input1/CSV出力ツール用INPUT1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{C4E1B8CB-A267-4F45-AD0A-B780AACE63D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6F7E171B-0201-41B4-A578-0D80D8018FDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="19430" windowHeight="15070" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
+    <workbookView xWindow="2880" yWindow="2880" windowWidth="19390" windowHeight="10990" firstSheet="1" activeTab="3" xr2:uid="{67BA2932-6253-4920-9CEC-EDB3FB25CFE6}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV_OUTPUT_DATA" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="699">
   <si>
     <t>A_INTG_SO_NUM</t>
   </si>
@@ -336,9 +336,6 @@
   </si>
   <si>
     <t>0852301572</t>
-  </si>
-  <si>
-    <t>0895736177</t>
   </si>
   <si>
     <t>0885304097</t>
@@ -1255,9 +1252,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>itashiro@akraipr.asm.dpk</t>
-  </si>
-  <si>
     <t>1946/12/10</t>
   </si>
   <si>
@@ -1280,9 +1274,6 @@
   </si>
   <si>
     <t>rui_ogata@dyfrabmjrt.fua</t>
-  </si>
-  <si>
-    <t>2006/11/11</t>
   </si>
   <si>
     <t>13</t>
@@ -2102,9 +2093,6 @@
   </si>
   <si>
     <t>102P</t>
-  </si>
-  <si>
-    <t>102Q</t>
   </si>
   <si>
     <t>102R</t>
@@ -2545,8 +2533,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:EK101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2572,10 +2560,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G1"/>
       <c r="H1"/>
@@ -2717,19 +2705,13 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>104</v>
+        <v>203</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>681</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -2737,19 +2719,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -2757,19 +2739,19 @@
         <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -2777,19 +2759,19 @@
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -2797,19 +2779,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -2817,39 +2799,39 @@
         <v>9</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="1:141" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -2857,19 +2839,19 @@
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="10" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -2877,19 +2859,19 @@
         <v>12</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -2897,19 +2879,19 @@
         <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="12" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -2917,19 +2899,19 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -2937,19 +2919,19 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="14" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -2957,19 +2939,19 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="15" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -2977,19 +2959,19 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -2997,19 +2979,19 @@
         <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="17" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3017,19 +2999,19 @@
         <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="18" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3037,19 +3019,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="19" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3057,19 +3039,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3077,19 +3059,19 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3097,19 +3079,19 @@
         <v>22</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="22" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3117,19 +3099,19 @@
         <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="23" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3137,19 +3119,19 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="24" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3157,19 +3139,19 @@
         <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="25" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3177,19 +3159,19 @@
         <v>26</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="26" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3197,19 +3179,19 @@
         <v>27</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="27" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3217,19 +3199,19 @@
         <v>28</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="28" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3237,19 +3219,19 @@
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="29" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3257,19 +3239,19 @@
         <v>30</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="30" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3277,19 +3259,19 @@
         <v>31</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="31" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3297,19 +3279,19 @@
         <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3317,19 +3299,19 @@
         <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="33" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3337,19 +3319,19 @@
         <v>34</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="34" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3357,19 +3339,19 @@
         <v>35</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="35" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3377,19 +3359,19 @@
         <v>36</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="36" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3397,19 +3379,19 @@
         <v>37</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="37" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3417,19 +3399,19 @@
         <v>38</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3437,19 +3419,19 @@
         <v>39</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="39" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3457,19 +3439,19 @@
         <v>40</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="40" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3477,19 +3459,19 @@
         <v>41</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="41" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3497,19 +3479,19 @@
         <v>42</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="42" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3517,19 +3499,19 @@
         <v>43</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="43" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3537,19 +3519,19 @@
         <v>44</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="44" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3557,19 +3539,19 @@
         <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="45" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3577,19 +3559,19 @@
         <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="46" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3597,19 +3579,19 @@
         <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="47" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3617,19 +3599,19 @@
         <v>48</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="48" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3637,19 +3619,19 @@
         <v>49</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="49" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3657,19 +3639,19 @@
         <v>50</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="50" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3677,19 +3659,19 @@
         <v>51</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="51" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3697,19 +3679,19 @@
         <v>52</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="52" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3717,19 +3699,19 @@
         <v>53</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="53" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3737,19 +3719,19 @@
         <v>54</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="54" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3757,19 +3739,19 @@
         <v>55</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="55" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3777,19 +3759,19 @@
         <v>56</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="56" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3797,19 +3779,19 @@
         <v>57</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="57" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3817,19 +3799,19 @@
         <v>58</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="58" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3837,19 +3819,19 @@
         <v>59</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="59" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3857,19 +3839,19 @@
         <v>60</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="60" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3877,19 +3859,19 @@
         <v>61</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="61" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3897,19 +3879,19 @@
         <v>62</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="62" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3917,19 +3899,19 @@
         <v>63</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="63" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3937,19 +3919,19 @@
         <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="64" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3957,19 +3939,19 @@
         <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="65" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3977,19 +3959,19 @@
         <v>66</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="66" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -3997,19 +3979,19 @@
         <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="67" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4017,19 +3999,19 @@
         <v>68</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="68" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4037,19 +4019,19 @@
         <v>69</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="69" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4057,19 +4039,19 @@
         <v>70</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="70" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4077,19 +4059,19 @@
         <v>71</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="71" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4097,19 +4079,19 @@
         <v>72</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="72" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4117,19 +4099,19 @@
         <v>73</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="73" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4137,19 +4119,19 @@
         <v>74</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="74" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4157,19 +4139,19 @@
         <v>75</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="75" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4177,19 +4159,19 @@
         <v>76</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="76" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4197,19 +4179,19 @@
         <v>77</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="77" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4217,19 +4199,19 @@
         <v>78</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="78" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4237,19 +4219,19 @@
         <v>79</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="79" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4257,19 +4239,19 @@
         <v>80</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="80" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4277,19 +4259,19 @@
         <v>81</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="81" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4297,19 +4279,19 @@
         <v>82</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="82" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4317,19 +4299,19 @@
         <v>83</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="83" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4337,19 +4319,19 @@
         <v>84</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="84" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4357,19 +4339,19 @@
         <v>85</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="85" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4377,19 +4359,19 @@
         <v>86</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="86" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4397,19 +4379,19 @@
         <v>87</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="87" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4417,19 +4399,19 @@
         <v>88</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="88" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4437,19 +4419,19 @@
         <v>89</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="89" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4457,19 +4439,19 @@
         <v>90</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="90" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4477,19 +4459,19 @@
         <v>91</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="91" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4497,19 +4479,19 @@
         <v>92</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="92" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4517,19 +4499,19 @@
         <v>93</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="93" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4537,19 +4519,19 @@
         <v>94</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="94" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4557,19 +4539,19 @@
         <v>95</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="95" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4577,19 +4559,19 @@
         <v>96</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="96" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4597,19 +4579,19 @@
         <v>97</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="97" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4617,19 +4599,19 @@
         <v>98</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="98" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4637,19 +4619,19 @@
         <v>99</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="99" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4657,19 +4639,19 @@
         <v>100</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="100" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4677,19 +4659,19 @@
         <v>101</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="101" spans="1:141" x14ac:dyDescent="0.55000000000000004">
@@ -4697,19 +4679,19 @@
         <v>102</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -4725,7 +4707,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -4741,2625 +4723,2619 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>408</v>
+        <v>303</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>669</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
   </sheetData>
@@ -7375,7 +7351,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7389,1413 +7365,1404 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C2" t="s">
-        <v>683</v>
-      </c>
-      <c r="D2" t="s">
-        <v>694</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C5" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D5" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C6" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D6" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C7" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D7" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D8" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C9" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D9" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C10" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D10" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C11" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D11" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C12" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D12" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C13" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D13" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C14" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D14" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C15" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D15" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C16" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D16" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C17" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D17" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C18" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D18" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C19" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D19" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C20" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D20" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C21" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D21" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C22" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D22" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C23" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D23" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C24" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D24" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C25" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D25" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C26" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D26" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C27" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D27" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C28" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D28" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C29" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D29" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C30" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D30" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C31" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D31" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C32" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D32" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C33" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D33" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C34" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D34" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C35" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D35" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C36" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D36" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C37" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D37" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C38" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D38" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C39" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D39" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C40" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D40" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C41" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D41" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C42" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D42" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C43" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D43" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C44" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D44" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C45" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D45" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C46" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D46" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C47" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D47" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C48" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D48" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C49" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D49" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C50" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D50" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C51" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D51" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C52" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D52" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C53" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D53" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C54" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D54" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C55" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D55" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C56" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D56" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C57" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D57" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C58" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D58" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C59" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D59" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C60" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D60" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C61" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D61" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C62" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D62" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C63" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D63" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C64" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D64" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C65" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D65" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C66" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D66" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C67" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D67" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C68" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D68" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C69" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D69" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C70" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D70" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C71" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D71" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C72" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D72" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C73" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D73" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C74" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D74" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C75" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D75" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C76" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D76" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C77" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D77" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C78" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D78" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C79" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D79" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C80" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D80" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C81" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D81" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C82" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D82" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C83" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D83" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="C84" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D84" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C85" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D85" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C86" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D86" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C87" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D87" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="C88" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D88" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C89" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D89" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C90" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D90" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C91" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D91" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C92" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D92" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C93" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D93" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C94" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D94" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C95" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D95" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C96" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D96" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C97" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D97" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C98" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D98" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C99" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D99" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C100" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D100" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C101" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="D101" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
   </sheetData>
@@ -8810,8 +8777,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -8825,1110 +8792,1108 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>417</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C3" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C4" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C5" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C6" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C7" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C9" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C10" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C11" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C12" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C13" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C14" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="C15" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C16" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C17" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C18" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C19" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C20" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C21" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C22" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C23" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C24" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C25" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C26" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C27" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C28" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C29" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C30" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C31" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C32" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C33" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C34" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C35" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C36" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C37" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C38" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C39" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C40" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C41" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C42" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C43" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C44" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C45" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C46" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C47" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C48" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C49" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C50" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C51" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C52" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C53" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C54" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C55" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C56" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C57" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C58" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C59" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C60" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C61" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C62" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C63" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C64" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C65" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C66" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C67" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C68" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C69" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C70" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C71" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C72" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="C73" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C74" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C75" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C76" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C77" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C78" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C79" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C80" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C81" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C82" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C83" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C84" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C85" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C86" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="C87" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C88" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="C89" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C90" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C91" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C92" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="C93" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="C94" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="C95" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C96" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C97" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C98" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C99" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C100" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="C101" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
   </sheetData>
